--- a/static/muban.xlsx
+++ b/static/muban.xlsx
@@ -15,7 +15,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="prize" localSheetId="0">工作表1!$A$1:$I$2</definedName>
+    <definedName name="prize" localSheetId="0">工作表1!$A$1:$H$2</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -47,14 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>id(序号)</t>
-    <rPh sb="3" eb="4">
-      <t>xu'hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>name(奖品名称)</t>
     <rPh sb="5" eb="6">
@@ -166,6 +159,24 @@
     <rPh sb="19" eb="20">
       <t>mo'ren</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲谱音乐体验中心免费体验券</t>
+  </si>
+  <si>
+    <t>台典正味免费香肠券</t>
+  </si>
+  <si>
+    <t>2358免费体验券</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,6 +184,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -216,9 +230,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -503,40 +519,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="39.5" customWidth="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="7" width="25.875" customWidth="1"/>
-    <col min="8" max="8" width="27.375" customWidth="1"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="27.375" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -547,197 +562,71 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
+      <c r="D2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
+      <c r="D3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
-        <v>37</v>
-      </c>
+      <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="G8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/muban.xlsx
+++ b/static/muban.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>name(奖品名称)</t>
     <rPh sb="5" eb="6">
@@ -149,7 +149,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>relation_id(关联活动id，在我发起的活动中查询)</t>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲谱音乐体验中心免费体验券</t>
+  </si>
+  <si>
+    <t>台典正味免费香肠券</t>
+  </si>
+  <si>
+    <t>2358免费体验券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_name(抽奖活动名称)</t>
     <rPh sb="12" eb="13">
       <t>guan'lian</t>
     </rPh>
@@ -162,21 +180,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲谱音乐体验中心免费体验券</t>
-  </si>
-  <si>
-    <t>台典正味免费香肠券</t>
-  </si>
-  <si>
-    <t>2358免费体验券</t>
+    <t>摇一摇，抽大奖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,11 +234,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -519,15 +524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
@@ -538,8 +543,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
+      <c r="A1" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -564,65 +569,59 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2">
-        <v>17</v>
+      <c r="A2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2">
-        <v>17</v>
+      <c r="A3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
-        <v>17</v>
+      <c r="A4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
-        <v>17</v>
+      <c r="A5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2">
-        <v>17</v>
+      <c r="A6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="G8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
